--- a/python_examples/impact_questions/scoping_questions.xlsx
+++ b/python_examples/impact_questions/scoping_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.sullivan/APIS/API_scripts/api-examples/python_examples/impact_questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE55880-0393-9247-AEA4-6E02F84A0E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D22BF42-1B7F-9547-9DC8-045111B09A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="2720" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="500" windowWidth="31780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Third Parties" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
-  <si>
-    <t>Apeel Technology Inc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>Google</t>
   </si>
@@ -70,10 +67,10 @@
     <t>Minimal</t>
   </si>
   <si>
-    <t>0 na test</t>
+    <t>Company UUID</t>
   </si>
   <si>
-    <t>Company UUID</t>
+    <t>casey</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
   <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -464,176 +461,176 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
